--- a/QHKH/BIEUMAUEXCEL/BM03CT.xlsx
+++ b/QHKH/BIEUMAUEXCEL/BM03CT.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="H:\QHKH\QHKH\BIEUMAUEXCEL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{999096B9-D30E-492A-A66F-4E94E81D2181}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C6F1917-C274-477E-A4E6-0A45C3FCE810}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3075" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
+    <workbookView xWindow="330" yWindow="705" windowWidth="21600" windowHeight="14895" xr2:uid="{282F4766-5114-46B0-B433-2EEA91293C5C}"/>
   </bookViews>
   <sheets>
     <sheet name="data" sheetId="1" r:id="rId1"/>
@@ -32,7 +32,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="95" uniqueCount="83">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="96" uniqueCount="84">
   <si>
     <t>STT</t>
   </si>
@@ -281,6 +281,9 @@
   </si>
   <si>
     <t>KẾ HOẠCH  SỬ DỤNG ĐẤT NĂM 20... CỦA TỈNH (THÀNH PHỐ) ...</t>
+  </si>
+  <si>
+    <t>BM03/CH</t>
   </si>
 </sst>
 </file>
@@ -422,7 +425,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="7" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -470,6 +473,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="right" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -788,8 +794,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A5B81006-4EE4-40EB-A6A4-3B63C9622C31}">
   <dimension ref="A1:N42"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I14" sqref="I14"/>
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
+      <selection activeCell="P8" sqref="P8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -802,6 +808,7 @@
     <col min="9" max="9" width="11.28515625" customWidth="1"/>
     <col min="10" max="10" width="12.140625" customWidth="1"/>
     <col min="11" max="11" width="13.140625" customWidth="1"/>
+    <col min="14" max="14" width="13.140625" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:14" ht="18.75" x14ac:dyDescent="0.3">
@@ -822,7 +829,7 @@
       <c r="M1" s="12"/>
       <c r="N1" s="12"/>
     </row>
-    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:14" ht="16.5" customHeight="1" x14ac:dyDescent="0.3">
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
       <c r="I2" s="1"/>
@@ -830,7 +837,9 @@
       <c r="K2" s="1"/>
       <c r="L2" s="1"/>
       <c r="M2" s="1"/>
-      <c r="N2" s="1"/>
+      <c r="N2" s="18" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3" s="13" t="s">
